--- a/20170927-devices/builds/development/data/_raw/printData.xlsx
+++ b/20170927-devices/builds/development/data/_raw/printData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="280" windowWidth="27840" windowHeight="17540"/>
+    <workbookView xWindow="540" yWindow="0" windowWidth="14260" windowHeight="17080"/>
   </bookViews>
   <sheets>
     <sheet name="acs_2016" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Source: U.S. Census Bureau, 2016 American Community Survey 1-Year Estimates</t>
   </si>
@@ -46,6 +46,27 @@
   </si>
   <si>
     <t>no computer</t>
+  </si>
+  <si>
+    <t>Age 18-29</t>
+  </si>
+  <si>
+    <t>Cellphone</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Age 30-49</t>
+  </si>
+  <si>
+    <t>Age 50-64</t>
+  </si>
+  <si>
+    <t>Age 65+</t>
+  </si>
+  <si>
+    <t>Source: Pew Research Center</t>
   </si>
 </sst>
 </file>
@@ -615,7 +636,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -623,6 +644,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="75">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1274,7 +1296,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1282,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1369,6 +1391,63 @@
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>92</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>88</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>74</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/20170927-devices/builds/development/data/_raw/printData.xlsx
+++ b/20170927-devices/builds/development/data/_raw/printData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="0" windowWidth="14260" windowHeight="17080"/>
+    <workbookView xWindow="540" yWindow="0" windowWidth="26120" windowHeight="19080"/>
   </bookViews>
   <sheets>
     <sheet name="acs_2016" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Source: U.S. Census Bureau, 2016 American Community Survey 1-Year Estimates</t>
   </si>
@@ -67,13 +67,25 @@
   </si>
   <si>
     <t>Source: Pew Research Center</t>
+  </si>
+  <si>
+    <t>Cellphone ownership by age group</t>
+  </si>
+  <si>
+    <t>About 95 percent of American adults own some type of cellphone or smartphone, as does a majority of each age group.</t>
+  </si>
+  <si>
+    <t>Digital device ownership</t>
+  </si>
+  <si>
+    <t>While most own some kind of digital computing device, about 10 percent of U.S. and Minnesotan households don't own any type of computer.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +270,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -559,7 +578,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -635,8 +654,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -645,8 +676,9 @@
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="87">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -698,6 +730,12 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -713,6 +751,12 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -742,13 +786,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -792,13 +836,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -849,7 +893,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -899,7 +943,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -949,7 +993,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -999,7 +1043,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1304,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A2:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1316,38 +1360,15 @@
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.81</v>
+    <row r="2" spans="1:8" ht="18">
+      <c r="A2" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.76</v>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1355,98 +1376,141 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
     <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.03</v>
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15">
       <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B10" s="3">
         <v>0.11</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C10" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="7" t="s">
+    <row r="19" spans="1:3" ht="18">
+      <c r="A19" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>92</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>88</v>
+      </c>
+      <c r="C24">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>92</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>88</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B25">
         <v>74</v>
       </c>
-      <c r="C16">
+      <c r="C25">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B26">
         <v>42</v>
       </c>
-      <c r="C17">
+      <c r="C26">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>15</v>
       </c>
     </row>
